--- a/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_6_38.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_6_38.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3734830.369276533</v>
+        <v>3727657.080566249</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2346514.735702202</v>
+        <v>2346514.735702201</v>
       </c>
     </row>
     <row r="8">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7844143.06856899</v>
+        <v>7844143.068568987</v>
       </c>
     </row>
     <row r="11">
@@ -658,16 +658,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>276.1565137023555</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>151.2837728994341</v>
       </c>
       <c r="D2" t="n">
         <v>276.1565137023555</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>276.1565137023555</v>
       </c>
       <c r="F2" t="n">
         <v>6.876045741711437</v>
@@ -679,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>205.0481221176458</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>141.0252816852793</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -721,10 +721,10 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>221.2006630000037</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>276.1565137023555</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -737,10 +737,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -752,13 +752,13 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>137.2681884137393</v>
       </c>
       <c r="H3" t="n">
         <v>111.5079271034444</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>86.80307722268739</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -788,25 +788,25 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>170.2839726213331</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>198.9796328522208</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.9364262421938</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>98.73689841325434</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -825,13 +825,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>29.71014592494667</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>79.32511041905947</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -843,7 +843,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>14.93225064571201</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -861,7 +861,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>80.87383288310646</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -895,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>365.5882110099157</v>
+        <v>372.0396308464203</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>308.2948575980562</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>372.0396308464219</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>14.83013367771037</v>
+        <v>14.83013367771038</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>192.255830128091</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>120.1819171385217</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -961,10 +961,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>372.0396308464219</v>
+        <v>372.0396308464203</v>
       </c>
     </row>
     <row r="6">
@@ -974,10 +974,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>66.59985514467016</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -1022,13 +1022,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>84.45800155129683</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>166.9863082141302</v>
+        <v>33.82715092274951</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>199.1455039024624</v>
       </c>
       <c r="U6" t="n">
         <v>225.9247462029711</v>
@@ -1037,13 +1037,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -1059,7 +1059,7 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>122.2436765653589</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>160.342354801553</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1116,13 +1116,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>64.00137801481493</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1138,13 +1138,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>176.5095086203302</v>
+        <v>247.1660563442232</v>
       </c>
       <c r="G8" t="n">
         <v>13.78417002079501</v>
@@ -1180,19 +1180,19 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.4784025748118</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1290,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1305,7 +1305,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>14.19510348422505</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1350,16 +1350,16 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>184.4885918116524</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1536,13 +1536,13 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>111.7102965283838</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1575,28 +1575,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>158.3917916061213</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1615,7 +1615,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722616</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -1672,7 +1672,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1770,10 +1770,10 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1785,7 +1785,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,28 +1812,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>214.5698748789916</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>187.8326399421082</v>
       </c>
     </row>
     <row r="17">
@@ -1864,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1903,7 +1903,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>197.9208099836032</v>
@@ -2067,7 +2067,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>33.35146980185879</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2095,13 +2095,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>411.9645167896914</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H20" t="n">
-        <v>305.2872491113176</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274054</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051987</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2177,10 +2177,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H21" t="n">
-        <v>94.98542483262918</v>
+        <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014433</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2210,7 +2210,7 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>138.5070438670631</v>
+        <v>138.5070438670632</v>
       </c>
       <c r="T21" t="n">
         <v>192.9654699154601</v>
@@ -2244,22 +2244,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>110.4192454642719</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,22 +2286,22 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>74.12784487631811</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T22" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2332,13 +2332,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>411.9645167896914</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H23" t="n">
-        <v>305.2872491113176</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274054</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,13 +2368,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051987</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U23" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -2414,10 +2414,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H24" t="n">
-        <v>94.98542483262918</v>
+        <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014433</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2447,7 +2447,7 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>138.5070438670631</v>
+        <v>138.5070438670632</v>
       </c>
       <c r="T24" t="n">
         <v>192.9654699154601</v>
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2484,7 +2484,7 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2523,16 +2523,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037927</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>26.97444673954876</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2541,10 +2541,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>108.4650682136816</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2560,7 +2560,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.6830416206836</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
@@ -2721,16 +2721,16 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2760,28 +2760,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>210.968521252134</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>162.6705139454669</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2806,13 +2806,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896921</v>
       </c>
       <c r="H29" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2848,7 +2848,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U29" t="n">
-        <v>251.0785952498017</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2952,10 +2952,10 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>27.29155389798943</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2964,13 +2964,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,28 +2997,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>237.6821551249385</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3049,7 +3049,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274137</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3192,22 +3192,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>166.4935684633776</v>
+        <v>15.98360398438622</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,28 +3234,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>201.6352710991257</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3331,7 +3331,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -3429,19 +3429,19 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -3483,16 +3483,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>30.58917703996752</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>25.82923535834103</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3517,13 +3517,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896914</v>
       </c>
       <c r="H38" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113175</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3660,13 +3660,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>106.4942921985365</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3675,7 +3675,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3708,13 +3708,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
         <v>286.2373523985773</v>
@@ -3726,7 +3726,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3900,10 +3900,10 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3918,7 +3918,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>82.55407911893511</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3948,7 +3948,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>118.4898845065119</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -3957,13 +3957,13 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -3994,10 +3994,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H44" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113176</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274054</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4042,7 +4042,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
         <v>386.2379386560536</v>
@@ -4137,10 +4137,10 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>154.8356463976236</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4152,10 +4152,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4185,10 +4185,10 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
         <v>286.2373523985773</v>
@@ -4200,7 +4200,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4306,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>323.2990948046596</v>
+        <v>962.1762753293418</v>
       </c>
       <c r="C2" t="n">
-        <v>323.2990948046596</v>
+        <v>809.3643835117316</v>
       </c>
       <c r="D2" t="n">
-        <v>44.35312136793684</v>
+        <v>530.4184100750089</v>
       </c>
       <c r="E2" t="n">
-        <v>44.35312136793684</v>
+        <v>251.4724366382861</v>
       </c>
       <c r="F2" t="n">
-        <v>37.40762061873336</v>
+        <v>244.5269358890827</v>
       </c>
       <c r="G2" t="n">
-        <v>22.09252109618844</v>
+        <v>229.2118363665377</v>
       </c>
       <c r="H2" t="n">
-        <v>22.09252109618844</v>
+        <v>229.2118363665377</v>
       </c>
       <c r="I2" t="n">
         <v>22.09252109618844</v>
@@ -4333,19 +4333,19 @@
         <v>22.09252109618844</v>
       </c>
       <c r="K2" t="n">
-        <v>142.8373253438684</v>
+        <v>142.8373253438683</v>
       </c>
       <c r="L2" t="n">
-        <v>344.9085595412869</v>
+        <v>344.9085595412868</v>
       </c>
       <c r="M2" t="n">
-        <v>586.3582880173957</v>
+        <v>586.3582880173956</v>
       </c>
       <c r="N2" t="n">
         <v>817.0829279823542</v>
       </c>
       <c r="O2" t="n">
-        <v>989.7620250901064</v>
+        <v>989.7620250901066</v>
       </c>
       <c r="P2" t="n">
         <v>1099.465256491931</v>
@@ -4354,28 +4354,28 @@
         <v>1104.626054809422</v>
       </c>
       <c r="R2" t="n">
-        <v>1104.626054809422</v>
+        <v>962.1762753293418</v>
       </c>
       <c r="S2" t="n">
-        <v>1104.626054809422</v>
+        <v>962.1762753293418</v>
       </c>
       <c r="T2" t="n">
-        <v>1104.626054809422</v>
+        <v>962.1762753293418</v>
       </c>
       <c r="U2" t="n">
-        <v>1104.626054809422</v>
+        <v>962.1762753293418</v>
       </c>
       <c r="V2" t="n">
-        <v>1104.626054809422</v>
+        <v>962.1762753293418</v>
       </c>
       <c r="W2" t="n">
-        <v>881.1910416781051</v>
+        <v>962.1762753293418</v>
       </c>
       <c r="X2" t="n">
-        <v>602.2450682413823</v>
+        <v>962.1762753293418</v>
       </c>
       <c r="Y2" t="n">
-        <v>602.2450682413823</v>
+        <v>962.1762753293418</v>
       </c>
     </row>
     <row r="3">
@@ -4385,43 +4385,43 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>309.1798201787745</v>
+        <v>361.0614026516138</v>
       </c>
       <c r="C3" t="n">
-        <v>134.7267908976475</v>
+        <v>361.0614026516138</v>
       </c>
       <c r="D3" t="n">
-        <v>134.7267908976475</v>
+        <v>361.0614026516138</v>
       </c>
       <c r="E3" t="n">
-        <v>134.7267908976475</v>
+        <v>361.0614026516138</v>
       </c>
       <c r="F3" t="n">
-        <v>134.7267908976475</v>
+        <v>361.0614026516138</v>
       </c>
       <c r="G3" t="n">
-        <v>134.7267908976475</v>
+        <v>222.40666688016</v>
       </c>
       <c r="H3" t="n">
-        <v>22.09252109618844</v>
+        <v>109.772397078701</v>
       </c>
       <c r="I3" t="n">
         <v>22.09252109618844</v>
       </c>
       <c r="J3" t="n">
-        <v>22.09252109618844</v>
+        <v>28.39914141318535</v>
       </c>
       <c r="K3" t="n">
-        <v>159.4923828364511</v>
+        <v>28.39914141318535</v>
       </c>
       <c r="L3" t="n">
-        <v>405.6478494291521</v>
+        <v>274.5546080058863</v>
       </c>
       <c r="M3" t="n">
-        <v>562.3310704112777</v>
+        <v>547.9495565712182</v>
       </c>
       <c r="N3" t="n">
-        <v>562.3310704112777</v>
+        <v>821.3445051365501</v>
       </c>
       <c r="O3" t="n">
         <v>828.8278839945615</v>
@@ -4436,25 +4436,25 @@
         <v>1104.626054809422</v>
       </c>
       <c r="S3" t="n">
-        <v>932.6220420606005</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="T3" t="n">
-        <v>731.6325139270441</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="U3" t="n">
-        <v>731.6325139270441</v>
+        <v>876.4074424435696</v>
       </c>
       <c r="V3" t="n">
-        <v>731.6325139270441</v>
+        <v>876.4074424435696</v>
       </c>
       <c r="W3" t="n">
-        <v>477.3951571988425</v>
+        <v>776.6732016221006</v>
       </c>
       <c r="X3" t="n">
-        <v>477.3951571988425</v>
+        <v>568.8217014165677</v>
       </c>
       <c r="Y3" t="n">
-        <v>477.3951571988425</v>
+        <v>361.0614026516138</v>
       </c>
     </row>
     <row r="4">
@@ -4464,31 +4464,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>117.3019767171697</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="C4" t="n">
-        <v>117.3019767171697</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="D4" t="n">
-        <v>117.3019767171697</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="E4" t="n">
-        <v>117.3019767171697</v>
+        <v>168.9824685940988</v>
       </c>
       <c r="F4" t="n">
-        <v>117.3019767171697</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="G4" t="n">
-        <v>37.1756025565036</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="H4" t="n">
-        <v>37.1756025565036</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="I4" t="n">
-        <v>37.1756025565036</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="J4" t="n">
-        <v>37.1756025565036</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="K4" t="n">
         <v>22.09252109618844</v>
@@ -4509,31 +4509,31 @@
         <v>198.9927170031359</v>
       </c>
       <c r="Q4" t="n">
-        <v>117.3019767171697</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="R4" t="n">
-        <v>117.3019767171697</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="S4" t="n">
-        <v>117.3019767171697</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="T4" t="n">
-        <v>117.3019767171697</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="U4" t="n">
-        <v>117.3019767171697</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="V4" t="n">
-        <v>117.3019767171697</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="W4" t="n">
-        <v>117.3019767171697</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="X4" t="n">
-        <v>117.3019767171697</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="Y4" t="n">
-        <v>117.3019767171697</v>
+        <v>198.9927170031359</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>621.6840193504761</v>
+        <v>363.097551293449</v>
       </c>
       <c r="C5" t="n">
-        <v>621.6840193504761</v>
+        <v>51.68860422470536</v>
       </c>
       <c r="D5" t="n">
-        <v>621.6840193504761</v>
+        <v>51.68860422470536</v>
       </c>
       <c r="E5" t="n">
-        <v>245.8864124348984</v>
+        <v>51.68860422470536</v>
       </c>
       <c r="F5" t="n">
-        <v>238.9409116856949</v>
+        <v>44.74310347550188</v>
       </c>
       <c r="G5" t="n">
-        <v>223.9609786779067</v>
+        <v>29.76317046771362</v>
       </c>
       <c r="H5" t="n">
-        <v>223.9609786779067</v>
+        <v>29.76317046771362</v>
       </c>
       <c r="I5" t="n">
-        <v>29.76317046771375</v>
+        <v>29.76317046771362</v>
       </c>
       <c r="J5" t="n">
-        <v>57.64391735380394</v>
+        <v>57.64391735380349</v>
       </c>
       <c r="K5" t="n">
-        <v>220.1747338456877</v>
+        <v>220.1747338456865</v>
       </c>
       <c r="L5" t="n">
-        <v>474.0852112039972</v>
+        <v>474.0852112039954</v>
       </c>
       <c r="M5" t="n">
-        <v>773.2160860494155</v>
+        <v>773.2160860494129</v>
       </c>
       <c r="N5" t="n">
-        <v>1062.555213635721</v>
+        <v>1062.555213635717</v>
       </c>
       <c r="O5" t="n">
-        <v>1290.582309293128</v>
+        <v>1290.582309293123</v>
       </c>
       <c r="P5" t="n">
-        <v>1447.523776935879</v>
+        <v>1447.523776935874</v>
       </c>
       <c r="Q5" t="n">
-        <v>1488.158523385687</v>
+        <v>1488.158523385681</v>
       </c>
       <c r="R5" t="n">
-        <v>1366.762647488191</v>
+        <v>1488.158523385681</v>
       </c>
       <c r="S5" t="n">
-        <v>1366.762647488191</v>
+        <v>1488.158523385681</v>
       </c>
       <c r="T5" t="n">
-        <v>1366.762647488191</v>
+        <v>1488.158523385681</v>
       </c>
       <c r="U5" t="n">
-        <v>1366.762647488191</v>
+        <v>1488.158523385681</v>
       </c>
       <c r="V5" t="n">
-        <v>1366.762647488191</v>
+        <v>1488.158523385681</v>
       </c>
       <c r="W5" t="n">
-        <v>1366.762647488191</v>
+        <v>1488.158523385681</v>
       </c>
       <c r="X5" t="n">
-        <v>1366.762647488191</v>
+        <v>1114.692765124601</v>
       </c>
       <c r="Y5" t="n">
-        <v>990.9650405726131</v>
+        <v>738.8951582090251</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>394.7486123036993</v>
+        <v>327.4760313494869</v>
       </c>
       <c r="C6" t="n">
-        <v>327.476031349487</v>
+        <v>327.4760313494869</v>
       </c>
       <c r="D6" t="n">
-        <v>327.476031349487</v>
+        <v>327.4760313494869</v>
       </c>
       <c r="E6" t="n">
-        <v>168.2385763440315</v>
+        <v>168.2385763440314</v>
       </c>
       <c r="F6" t="n">
-        <v>168.2385763440315</v>
+        <v>168.2385763440314</v>
       </c>
       <c r="G6" t="n">
-        <v>29.76317046771375</v>
+        <v>29.76317046771362</v>
       </c>
       <c r="H6" t="n">
-        <v>29.76317046771375</v>
+        <v>29.76317046771362</v>
       </c>
       <c r="I6" t="n">
-        <v>29.76317046771375</v>
+        <v>29.76317046771362</v>
       </c>
       <c r="J6" t="n">
-        <v>52.67537262782844</v>
+        <v>29.76317046771362</v>
       </c>
       <c r="K6" t="n">
-        <v>52.67537262782844</v>
+        <v>195.5446164760259</v>
       </c>
       <c r="L6" t="n">
-        <v>111.4085491144795</v>
+        <v>479.8626256221613</v>
       </c>
       <c r="M6" t="n">
-        <v>479.7277836524371</v>
+        <v>811.5244074754065</v>
       </c>
       <c r="N6" t="n">
-        <v>848.0470181903947</v>
+        <v>1179.843642013363</v>
       </c>
       <c r="O6" t="n">
-        <v>1156.361899562714</v>
+        <v>1488.158523385681</v>
       </c>
       <c r="P6" t="n">
-        <v>1386.808705706684</v>
+        <v>1488.158523385681</v>
       </c>
       <c r="Q6" t="n">
-        <v>1488.158523385687</v>
+        <v>1488.158523385681</v>
       </c>
       <c r="R6" t="n">
-        <v>1402.84741070761</v>
+        <v>1488.158523385681</v>
       </c>
       <c r="S6" t="n">
-        <v>1234.174372107478</v>
+        <v>1453.989684069772</v>
       </c>
       <c r="T6" t="n">
-        <v>1234.174372107478</v>
+        <v>1252.832609420821</v>
       </c>
       <c r="U6" t="n">
-        <v>1005.967557761043</v>
+        <v>1024.625795074385</v>
       </c>
       <c r="V6" t="n">
-        <v>770.8154495293002</v>
+        <v>789.4736868426423</v>
       </c>
       <c r="W6" t="n">
-        <v>770.8154495293002</v>
+        <v>535.2363301144408</v>
       </c>
       <c r="X6" t="n">
-        <v>562.9639493237673</v>
+        <v>535.2363301144408</v>
       </c>
       <c r="Y6" t="n">
-        <v>562.9639493237673</v>
+        <v>327.4760313494869</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>315.2036061918672</v>
+        <v>29.76317046771362</v>
       </c>
       <c r="C7" t="n">
-        <v>315.2036061918672</v>
+        <v>29.76317046771362</v>
       </c>
       <c r="D7" t="n">
-        <v>191.7251450147369</v>
+        <v>29.76317046771362</v>
       </c>
       <c r="E7" t="n">
-        <v>191.7251450147369</v>
+        <v>29.76317046771362</v>
       </c>
       <c r="F7" t="n">
-        <v>191.7251450147369</v>
+        <v>29.76317046771362</v>
       </c>
       <c r="G7" t="n">
-        <v>191.7251450147369</v>
+        <v>29.76317046771362</v>
       </c>
       <c r="H7" t="n">
-        <v>29.76317046771375</v>
+        <v>29.76317046771362</v>
       </c>
       <c r="I7" t="n">
-        <v>29.76317046771375</v>
+        <v>29.76317046771362</v>
       </c>
       <c r="J7" t="n">
-        <v>29.76317046771375</v>
+        <v>29.76317046771362</v>
       </c>
       <c r="K7" t="n">
-        <v>32.09990175888151</v>
+        <v>32.09990175888108</v>
       </c>
       <c r="L7" t="n">
-        <v>90.61654790611256</v>
+        <v>90.61654790611175</v>
       </c>
       <c r="M7" t="n">
-        <v>162.7032697236686</v>
+        <v>162.7032697236674</v>
       </c>
       <c r="N7" t="n">
-        <v>238.5105468400018</v>
+        <v>238.5105468400002</v>
       </c>
       <c r="O7" t="n">
-        <v>292.5145415057943</v>
+        <v>292.5145415057924</v>
       </c>
       <c r="P7" t="n">
-        <v>315.2036061918672</v>
+        <v>315.2036061918649</v>
       </c>
       <c r="Q7" t="n">
-        <v>315.2036061918672</v>
+        <v>315.2036061918649</v>
       </c>
       <c r="R7" t="n">
-        <v>315.2036061918672</v>
+        <v>315.2036061918649</v>
       </c>
       <c r="S7" t="n">
-        <v>315.2036061918672</v>
+        <v>315.2036061918649</v>
       </c>
       <c r="T7" t="n">
-        <v>315.2036061918672</v>
+        <v>315.2036061918649</v>
       </c>
       <c r="U7" t="n">
-        <v>315.2036061918672</v>
+        <v>315.2036061918649</v>
       </c>
       <c r="V7" t="n">
-        <v>315.2036061918672</v>
+        <v>315.2036061918649</v>
       </c>
       <c r="W7" t="n">
-        <v>315.2036061918672</v>
+        <v>250.5557496112437</v>
       </c>
       <c r="X7" t="n">
-        <v>315.2036061918672</v>
+        <v>250.5557496112437</v>
       </c>
       <c r="Y7" t="n">
-        <v>315.2036061918672</v>
+        <v>29.76317046771362</v>
       </c>
     </row>
     <row r="8">
@@ -4780,16 +4780,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1154.375564375168</v>
+        <v>1198.223260609829</v>
       </c>
       <c r="C8" t="n">
-        <v>785.4130474347567</v>
+        <v>829.2607436694175</v>
       </c>
       <c r="D8" t="n">
-        <v>785.4130474347567</v>
+        <v>470.995045062667</v>
       </c>
       <c r="E8" t="n">
-        <v>399.6247948365124</v>
+        <v>470.995045062667</v>
       </c>
       <c r="F8" t="n">
         <v>221.332361886684</v>
@@ -4804,22 +4804,22 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533155</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.961649073314</v>
+        <v>463.9616490733124</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224085</v>
+        <v>881.2824271224071</v>
       </c>
       <c r="M8" t="n">
-        <v>1362.238747280444</v>
+        <v>1362.238747280442</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
-        <v>2238.843319642689</v>
+        <v>2238.843319642688</v>
       </c>
       <c r="P8" t="n">
         <v>2544.691559791253</v>
@@ -4828,28 +4828,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2520.971603332393</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T8" t="n">
-        <v>2520.971603332393</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U8" t="n">
-        <v>2267.209817970484</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V8" t="n">
-        <v>2267.209817970484</v>
+        <v>2311.057514205145</v>
       </c>
       <c r="W8" t="n">
-        <v>1914.44116270037</v>
+        <v>1958.288858935031</v>
       </c>
       <c r="X8" t="n">
-        <v>1540.97540443929</v>
+        <v>1584.823100673951</v>
       </c>
       <c r="Y8" t="n">
-        <v>1540.97540443929</v>
+        <v>1584.823100673951</v>
       </c>
     </row>
     <row r="9">
@@ -4874,10 +4874,10 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424004</v>
       </c>
       <c r="H9" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I9" t="n">
         <v>53.94298182036445</v>
@@ -4895,13 +4895,13 @@
         <v>1313.210296315295</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414846</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.07275543519</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.317569050018</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018222</v>
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>222.942782082032</v>
+        <v>68.28147018826854</v>
       </c>
       <c r="C10" t="n">
-        <v>222.942782082032</v>
+        <v>68.28147018826854</v>
       </c>
       <c r="D10" t="n">
-        <v>222.942782082032</v>
+        <v>68.28147018826854</v>
       </c>
       <c r="E10" t="n">
-        <v>222.942782082032</v>
+        <v>68.28147018826854</v>
       </c>
       <c r="F10" t="n">
-        <v>222.942782082032</v>
+        <v>68.28147018826854</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>68.28147018826854</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>68.28147018826854</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>68.28147018826854</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036445</v>
@@ -4998,16 +4998,16 @@
         <v>698.7120650600557</v>
       </c>
       <c r="V10" t="n">
-        <v>512.3599521189926</v>
+        <v>698.7120650600557</v>
       </c>
       <c r="W10" t="n">
-        <v>222.942782082032</v>
+        <v>698.7120650600557</v>
       </c>
       <c r="X10" t="n">
-        <v>222.942782082032</v>
+        <v>470.7225141620384</v>
       </c>
       <c r="Y10" t="n">
-        <v>222.942782082032</v>
+        <v>249.9299350185082</v>
       </c>
     </row>
     <row r="11">
@@ -5023,28 +5023,28 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805465</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I11" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795207</v>
@@ -5056,7 +5056,7 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
         <v>4454.632848899127</v>
@@ -5068,22 +5068,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y11" t="n">
         <v>2814.921224614724</v>
@@ -5123,22 +5123,22 @@
         <v>138.7081686256435</v>
       </c>
       <c r="K12" t="n">
-        <v>287.7778528277033</v>
+        <v>326.249275617007</v>
       </c>
       <c r="L12" t="n">
-        <v>534.5429807341674</v>
+        <v>940.1463453738957</v>
       </c>
       <c r="M12" t="n">
-        <v>841.863114014129</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N12" t="n">
-        <v>1528.62340110598</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O12" t="n">
-        <v>1808.163466324677</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P12" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5175,19 +5175,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>266.1532743881928</v>
+        <v>526.9050513325897</v>
       </c>
       <c r="C13" t="n">
-        <v>97.21709146028584</v>
+        <v>357.9688684046828</v>
       </c>
       <c r="D13" t="n">
-        <v>97.21709146028584</v>
+        <v>357.9688684046828</v>
       </c>
       <c r="E13" t="n">
-        <v>97.21709146028584</v>
+        <v>210.0557748222897</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028584</v>
+        <v>210.0557748222897</v>
       </c>
       <c r="G13" t="n">
         <v>97.21709146028584</v>
@@ -5223,28 +5223,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1387.841167119728</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T13" t="n">
-        <v>1164.055751909234</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U13" t="n">
-        <v>874.927113122792</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="V13" t="n">
-        <v>874.927113122792</v>
+        <v>1044.311772267568</v>
       </c>
       <c r="W13" t="n">
-        <v>714.9354044297402</v>
+        <v>754.894602230607</v>
       </c>
       <c r="X13" t="n">
-        <v>486.9458535317228</v>
+        <v>526.9050513325897</v>
       </c>
       <c r="Y13" t="n">
-        <v>266.1532743881928</v>
+        <v>526.9050513325897</v>
       </c>
     </row>
     <row r="14">
@@ -5254,13 +5254,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C14" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
         <v>1315.304916405196</v>
@@ -5284,7 +5284,7 @@
         <v>889.2841917514085</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
@@ -5320,10 +5320,10 @@
         <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="15">
@@ -5357,25 +5357,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K15" t="n">
-        <v>592.8217113586345</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L15" t="n">
-        <v>1206.718781115523</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M15" t="n">
-        <v>1514.038914395485</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N15" t="n">
-        <v>1843.901542059518</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O15" t="n">
-        <v>2123.441607278215</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P15" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>506.7814158330672</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C16" t="n">
-        <v>506.7814158330672</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D16" t="n">
-        <v>356.6647764207315</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I16" t="n">
         <v>97.21709146028584</v>
@@ -5460,28 +5460,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T16" t="n">
-        <v>1171.103919767211</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U16" t="n">
-        <v>1171.103919767211</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V16" t="n">
-        <v>916.4194315613242</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="W16" t="n">
-        <v>916.4194315613242</v>
+        <v>696.5850465240057</v>
       </c>
       <c r="X16" t="n">
-        <v>688.4298806633069</v>
+        <v>468.5954956259884</v>
       </c>
       <c r="Y16" t="n">
-        <v>688.4298806633069</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="17">
@@ -5491,25 +5491,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E17" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G17" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I17" t="n">
         <v>97.21709146028584</v>
@@ -5518,16 +5518,16 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O17" t="n">
         <v>3889.732883643323</v>
@@ -5551,16 +5551,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W17" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="18">
@@ -5697,22 +5697,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T19" t="n">
-        <v>964.135741824786</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U19" t="n">
-        <v>675.0071030383442</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V19" t="n">
-        <v>420.3226148324574</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W19" t="n">
-        <v>130.9054447954967</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X19" t="n">
         <v>97.21709146028584</v>
@@ -5752,28 +5752,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823719</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514023</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795201</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M20" t="n">
-        <v>2388.164701515093</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619125</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643322</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
         <v>4860.854573014292</v>
@@ -5816,40 +5816,40 @@
         <v>664.0438201101999</v>
       </c>
       <c r="E21" t="n">
-        <v>504.8063651047444</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F21" t="n">
-        <v>358.2718071316293</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G21" t="n">
-        <v>221.3451287358146</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H21" t="n">
-        <v>125.4002551675023</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>138.7081686256437</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>549.5984374701569</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L21" t="n">
-        <v>796.3635653766216</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M21" t="n">
-        <v>1406.737288300435</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N21" t="n">
-        <v>1736.599915964469</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O21" t="n">
-        <v>2016.139981183167</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P21" t="n">
-        <v>2536.440602918914</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>972.2646934632137</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C22" t="n">
-        <v>972.2646934632137</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D22" t="n">
-        <v>822.1480540508779</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E22" t="n">
-        <v>674.2349604684848</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F22" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G22" t="n">
-        <v>359.169691290395</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H22" t="n">
-        <v>208.7516828383383</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I22" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
-        <v>109.5997839241959</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688077</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799373</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471205</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N22" t="n">
-        <v>1049.608084974669</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O22" t="n">
-        <v>1283.483062980066</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585749</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557905</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1424.039659571725</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1424.039659571725</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T22" t="n">
-        <v>1200.254244361231</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U22" t="n">
-        <v>1200.254244361231</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V22" t="n">
-        <v>1200.254244361231</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W22" t="n">
-        <v>1200.254244361231</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X22" t="n">
-        <v>972.2646934632137</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y22" t="n">
-        <v>972.2646934632137</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="23">
@@ -5965,52 +5965,52 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H23" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823792</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514096</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795209</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.1647015151</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619132</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643329</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899133</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207836</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
         <v>4860.854573014292</v>
@@ -6025,16 +6025,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="24">
@@ -6053,40 +6053,40 @@
         <v>664.0438201101999</v>
       </c>
       <c r="E24" t="n">
-        <v>504.8063651047444</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316293</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G24" t="n">
-        <v>221.3451287358146</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675023</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>138.7081686256437</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K24" t="n">
-        <v>287.7778528277041</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L24" t="n">
-        <v>891.4406401619824</v>
+        <v>563.7235867775516</v>
       </c>
       <c r="M24" t="n">
-        <v>1198.760773441945</v>
+        <v>1332.091733170013</v>
       </c>
       <c r="N24" t="n">
-        <v>1528.623401105978</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O24" t="n">
-        <v>1808.163466324676</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P24" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q24" t="n">
         <v>2623.573505376138</v>
@@ -6123,13 +6123,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>245.130185042679</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C25" t="n">
-        <v>245.130185042679</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D25" t="n">
-        <v>245.130185042679</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E25" t="n">
         <v>97.21709146028584</v>
@@ -6147,52 +6147,52 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
-        <v>109.5997839241959</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688077</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799373</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471205</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N25" t="n">
-        <v>1049.608084974669</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O25" t="n">
-        <v>1283.483062980066</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585749</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557905</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1387.841167119731</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1187.921157035283</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T25" t="n">
-        <v>1187.921157035283</v>
+        <v>1271.749344574921</v>
       </c>
       <c r="U25" t="n">
-        <v>898.7925182488411</v>
+        <v>1271.749344574921</v>
       </c>
       <c r="V25" t="n">
-        <v>644.1080300429543</v>
+        <v>1017.064856369034</v>
       </c>
       <c r="W25" t="n">
-        <v>354.6908600059937</v>
+        <v>727.647686332073</v>
       </c>
       <c r="X25" t="n">
-        <v>354.6908600059937</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="Y25" t="n">
-        <v>245.130185042679</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="26">
@@ -6208,19 +6208,19 @@
         <v>2059.358867610192</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G26" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I26" t="n">
         <v>97.21709146028587</v>
@@ -6229,10 +6229,10 @@
         <v>365.8813331823794</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515098</v>
@@ -6241,7 +6241,7 @@
         <v>3183.709822619129</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P26" t="n">
         <v>4454.632848899128</v>
@@ -6305,22 +6305,22 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J27" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L27" t="n">
-        <v>1163.495507227045</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M27" t="n">
-        <v>1470.815640507006</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N27" t="n">
-        <v>1800.678268171039</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O27" t="n">
-        <v>2080.218333389736</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P27" t="n">
         <v>2328.464088060424</v>
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>710.6134626728254</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C28" t="n">
-        <v>710.6134626728254</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D28" t="n">
-        <v>710.6134626728254</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E28" t="n">
-        <v>562.7003690904323</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F28" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G28" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H28" t="n">
         <v>97.21709146028587</v>
@@ -6408,28 +6408,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1387.841167119728</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T28" t="n">
-        <v>1164.055751909234</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U28" t="n">
-        <v>874.927113122792</v>
+        <v>862.1113288466635</v>
       </c>
       <c r="V28" t="n">
-        <v>874.927113122792</v>
+        <v>607.4268406407766</v>
       </c>
       <c r="W28" t="n">
-        <v>874.927113122792</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="X28" t="n">
-        <v>710.6134626728254</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y28" t="n">
-        <v>710.6134626728254</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="29">
@@ -6439,34 +6439,34 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H29" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823781</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514077</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795206</v>
@@ -6475,40 +6475,40 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T29" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="30">
@@ -6539,7 +6539,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J30" t="n">
         <v>138.7081686256435</v>
@@ -6551,10 +6551,10 @@
         <v>534.5429807341674</v>
       </c>
       <c r="M30" t="n">
-        <v>1302.911127126629</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N30" t="n">
-        <v>1661.954360834046</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O30" t="n">
         <v>2331.418122136705</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>554.6108700904388</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C31" t="n">
-        <v>527.0436439308535</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D31" t="n">
-        <v>376.9270045185177</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E31" t="n">
-        <v>376.9270045185177</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F31" t="n">
-        <v>376.9270045185177</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G31" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H31" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J31" t="n">
         <v>109.5997839241957</v>
@@ -6627,10 +6627,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L31" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M31" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N31" t="n">
         <v>1049.608084974667</v>
@@ -6645,28 +6645,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R31" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>1387.841167119728</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T31" t="n">
-        <v>1387.841167119728</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U31" t="n">
-        <v>1098.712528333286</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V31" t="n">
-        <v>844.0280401273993</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="W31" t="n">
-        <v>554.6108700904388</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X31" t="n">
-        <v>554.6108700904388</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y31" t="n">
-        <v>554.6108700904388</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="32">
@@ -6682,37 +6682,37 @@
         <v>2059.358867610192</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805476</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822469</v>
       </c>
       <c r="I32" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823781</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514091</v>
+        <v>889.2841917514077</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643324</v>
@@ -6785,13 +6785,13 @@
         <v>287.7778528277033</v>
       </c>
       <c r="L33" t="n">
-        <v>563.7235867775516</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M33" t="n">
-        <v>1332.091733170013</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N33" t="n">
-        <v>1661.954360834046</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O33" t="n">
         <v>2331.418122136705</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3888.981946387244</v>
+        <v>260.2520934878793</v>
       </c>
       <c r="C34" t="n">
-        <v>3888.981946387244</v>
+        <v>260.2520934878793</v>
       </c>
       <c r="D34" t="n">
-        <v>3738.865306974908</v>
+        <v>260.2520934878793</v>
       </c>
       <c r="E34" t="n">
-        <v>3738.865306974908</v>
+        <v>260.2520934878793</v>
       </c>
       <c r="F34" t="n">
-        <v>3738.865306974908</v>
+        <v>113.3621459899689</v>
       </c>
       <c r="G34" t="n">
-        <v>3570.689985294729</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H34" t="n">
-        <v>3570.689985294729</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I34" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J34" t="n">
-        <v>3471.538086380586</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K34" t="n">
-        <v>3621.723490625198</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L34" t="n">
-        <v>3869.435535636327</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M34" t="n">
-        <v>4141.00227840351</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N34" t="n">
-        <v>4411.546387431057</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O34" t="n">
-        <v>4645.421365436454</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P34" t="n">
-        <v>4822.021130042137</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q34" t="n">
-        <v>4860.854573014293</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R34" t="n">
-        <v>4749.779469576119</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>4749.779469576119</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T34" t="n">
-        <v>4749.779469576119</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U34" t="n">
-        <v>4749.779469576119</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V34" t="n">
-        <v>4495.094981370232</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W34" t="n">
-        <v>4291.422990361014</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X34" t="n">
-        <v>4291.422990361014</v>
+        <v>441.900558318119</v>
       </c>
       <c r="Y34" t="n">
-        <v>4070.630411217484</v>
+        <v>441.900558318119</v>
       </c>
     </row>
     <row r="35">
@@ -6913,22 +6913,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E35" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G35" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H35" t="n">
         <v>179.8222783822462</v>
@@ -6970,19 +6970,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="36">
@@ -7022,19 +7022,19 @@
         <v>287.7778528277033</v>
       </c>
       <c r="L36" t="n">
-        <v>901.674922584592</v>
+        <v>563.7235867775516</v>
       </c>
       <c r="M36" t="n">
-        <v>1514.038914395485</v>
+        <v>1332.091733170013</v>
       </c>
       <c r="N36" t="n">
-        <v>1843.901542059518</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O36" t="n">
-        <v>2123.441607278215</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P36" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q36" t="n">
         <v>2623.573505376138</v>
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>395.2468244550147</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="C37" t="n">
-        <v>395.2468244550147</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="D37" t="n">
-        <v>245.130185042679</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="E37" t="n">
-        <v>97.21709146028584</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="F37" t="n">
-        <v>97.21709146028584</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G37" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H37" t="n">
         <v>97.21709146028584</v>
@@ -7119,28 +7119,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R37" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T37" t="n">
-        <v>1164.055751909234</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U37" t="n">
-        <v>874.927113122792</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V37" t="n">
-        <v>874.927113122792</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W37" t="n">
-        <v>844.0289544965622</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X37" t="n">
-        <v>616.0394035985448</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="Y37" t="n">
-        <v>395.2468244550147</v>
+        <v>415.8104215925219</v>
       </c>
     </row>
     <row r="38">
@@ -7153,7 +7153,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D38" t="n">
         <v>1701.09316900344</v>
@@ -7162,25 +7162,25 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155884</v>
       </c>
       <c r="G38" t="n">
         <v>488.1932370805467</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
@@ -7207,16 +7207,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y38" t="n">
         <v>2814.921224614724</v>
@@ -7262,13 +7262,13 @@
         <v>901.674922584592</v>
       </c>
       <c r="M39" t="n">
-        <v>1208.995055864554</v>
+        <v>1670.043068977054</v>
       </c>
       <c r="N39" t="n">
-        <v>1538.857683528586</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O39" t="n">
-        <v>2016.139981183168</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P39" t="n">
         <v>2536.440602918915</v>
@@ -7308,19 +7308,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>372.962405260199</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C40" t="n">
-        <v>372.962405260199</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D40" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E40" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F40" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G40" t="n">
         <v>97.21709146028584</v>
@@ -7356,28 +7356,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R40" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1387.841167119728</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T40" t="n">
-        <v>1387.841167119728</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U40" t="n">
-        <v>1098.712528333286</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V40" t="n">
-        <v>844.0280401273993</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W40" t="n">
-        <v>554.6108700904388</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X40" t="n">
-        <v>554.6108700904388</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y40" t="n">
-        <v>554.6108700904388</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="41">
@@ -7399,13 +7399,13 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I41" t="n">
         <v>97.21709146028584</v>
@@ -7417,7 +7417,7 @@
         <v>889.2841917514085</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
@@ -7438,10 +7438,10 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T41" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U41" t="n">
         <v>4262.3578574653</v>
@@ -7490,28 +7490,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L42" t="n">
-        <v>534.5429807341674</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M42" t="n">
-        <v>1302.911127126629</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N42" t="n">
-        <v>1736.599915964471</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O42" t="n">
-        <v>2016.139981183168</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P42" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q42" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>3861.596174962912</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C43" t="n">
-        <v>3692.659992035005</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D43" t="n">
-        <v>3542.54335262267</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E43" t="n">
-        <v>3542.54335262267</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F43" t="n">
-        <v>3542.54335262267</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G43" t="n">
-        <v>3542.54335262267</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H43" t="n">
-        <v>3542.54335262267</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I43" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J43" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K43" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L43" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M43" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N43" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O43" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P43" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q43" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R43" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>4660.934562929845</v>
+        <v>1379.229518531123</v>
       </c>
       <c r="T43" t="n">
-        <v>4660.934562929845</v>
+        <v>1379.229518531123</v>
       </c>
       <c r="U43" t="n">
-        <v>4371.805924143403</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V43" t="n">
-        <v>4371.805924143403</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W43" t="n">
-        <v>4082.388754106442</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X43" t="n">
-        <v>4082.388754106442</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y43" t="n">
-        <v>3861.596174962912</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="44">
@@ -7624,25 +7624,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E44" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G44" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I44" t="n">
         <v>97.21709146028584</v>
@@ -7690,10 +7690,10 @@
         <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="45">
@@ -7727,28 +7727,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L45" t="n">
-        <v>534.5429807341674</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M45" t="n">
-        <v>1039.489963795367</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N45" t="n">
-        <v>1843.901542059518</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O45" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q45" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>665.6859735286132</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C46" t="n">
-        <v>509.2863307027308</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D46" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E46" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F46" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G46" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H46" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I46" t="n">
         <v>97.21709146028584</v>
@@ -7833,25 +7833,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1498.916270557902</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T46" t="n">
-        <v>1498.916270557902</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U46" t="n">
-        <v>1209.787631771461</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V46" t="n">
-        <v>955.1031435655738</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W46" t="n">
-        <v>665.6859735286132</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X46" t="n">
-        <v>665.6859735286132</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y46" t="n">
-        <v>665.6859735286132</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
   </sheetData>
@@ -8057,22 +8057,22 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>119.7207117878867</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>125.6774978810001</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>281.3133266100198</v>
+        <v>399.2039605324505</v>
       </c>
       <c r="N3" t="n">
-        <v>111.7499598249992</v>
+        <v>387.9064735273547</v>
       </c>
       <c r="O3" t="n">
-        <v>393.8623192767295</v>
+        <v>132.2325872309998</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
@@ -8294,28 +8294,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>102.9473967948387</v>
       </c>
       <c r="K6" t="n">
-        <v>97.0092309435758</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>142.9768779706459</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>450.1033532835733</v>
+        <v>413.0756232990161</v>
       </c>
       <c r="N6" t="n">
-        <v>437.6152809470458</v>
+        <v>437.615280947045</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>85.68821697936224</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>107.7037345247346</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8543,7 +8543,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>359.9065542451769</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747269</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8710,7 +8710,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q11" t="n">
-        <v>212.3149906599047</v>
+        <v>212.3149906599049</v>
       </c>
       <c r="R11" t="n">
         <v>65.71641987298243</v>
@@ -8771,25 +8771,25 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>38.86002301949873</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>360.5026862907255</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>34.78428385445217</v>
@@ -8932,10 +8932,10 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
-        <v>417.6612145504502</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928324</v>
       </c>
       <c r="N14" t="n">
         <v>437.3469244119842</v>
@@ -9005,19 +9005,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>182.0340742867944</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>423.3376789165115</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -9026,7 +9026,7 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>34.78428385445217</v>
@@ -9187,7 +9187,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9400,7 +9400,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>169.0966151720665</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
         <v>324.1454125711647</v>
@@ -9424,7 +9424,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9479,7 +9479,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
         <v>264.4652370125786</v>
@@ -9488,7 +9488,7 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>306.1147370139914</v>
+        <v>288.4091825776751</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
@@ -9497,13 +9497,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445199</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9661,7 +9661,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987297522</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9722,25 +9722,25 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>360.5026862907208</v>
+        <v>29.47535963978208</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445199</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9953,13 +9953,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -9971,7 +9971,7 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>43.65987261462459</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
@@ -10199,13 +10199,13 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>465.7050637499999</v>
+        <v>409.700368322958</v>
       </c>
       <c r="N30" t="n">
-        <v>29.47535963978214</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O30" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -10433,16 +10433,16 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>29.47535963978208</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>423.3376789165115</v>
       </c>
       <c r="O33" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -10670,22 +10670,22 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>370.8403453034592</v>
+        <v>29.47535963978208</v>
       </c>
       <c r="M36" t="n">
-        <v>308.1251096272033</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>34.78428385445217</v>
@@ -10822,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720736</v>
       </c>
       <c r="K38" t="n">
         <v>324.1454125711647</v>
@@ -10843,7 +10843,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q38" t="n">
-        <v>212.3149906599049</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
         <v>65.71641987298243</v>
@@ -10910,16 +10910,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>52.49733361305226</v>
       </c>
       <c r="O39" t="n">
-        <v>199.7396287231153</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -11065,7 +11065,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504502</v>
       </c>
       <c r="M41" t="n">
         <v>449.5135334928325</v>
@@ -11080,7 +11080,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
-        <v>212.3149906599049</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
         <v>65.71641987298243</v>
@@ -11138,31 +11138,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>104.8749102765748</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11308,7 +11308,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
-        <v>437.3469244119843</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O44" t="n">
         <v>380.8001812627454</v>
@@ -11320,7 +11320,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11375,31 +11375,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>199.6230805871088</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23424,13 +23424,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>54.78327193499381</v>
       </c>
       <c r="H13" t="n">
         <v>148.9138283675361</v>
@@ -23463,28 +23463,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>128.1312067304697</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23658,10 +23658,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -23673,7 +23673,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,28 +23700,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>6.977686179397665</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>30.75201340998657</v>
       </c>
     </row>
     <row r="17">
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23955,7 +23955,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>192.3581855871784</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -24132,22 +24132,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,22 +24174,22 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>35.83650752747457</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24363,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24372,7 +24372,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24384,7 +24384,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
-        <v>110.4192454642719</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,16 +24411,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>194.5731143188405</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24429,10 +24429,10 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>110.1195851384132</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24609,16 +24609,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
         <v>110.419245464272</v>
@@ -24648,28 +24648,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>75.26883114644335</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>63.03914144357029</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24840,10 +24840,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>139.9552672006384</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24852,13 +24852,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,28 +24885,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>14.4554881988895</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25080,22 +25080,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>150.5099644789914</v>
       </c>
       <c r="H34" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,28 +25122,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>84.8877272374653</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25317,19 +25317,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>110.419245464272</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
         <v>197.9208099836032</v>
@@ -25371,16 +25371,16 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>255.9338212966235</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>199.8804200306961</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25548,13 +25548,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>42.1211808196759</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25563,7 +25563,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
         <v>148.9138283675361</v>
@@ -25596,13 +25596,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25614,7 +25614,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -25788,10 +25788,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -25806,7 +25806,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
-        <v>27.86516634533687</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25836,7 +25836,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>79.43092547709136</v>
       </c>
       <c r="T43" t="n">
         <v>221.5475610583892</v>
@@ -25845,13 +25845,13 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26025,10 +26025,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>12.41117470100423</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -26040,10 +26040,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26073,10 +26073,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26088,7 +26088,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>707861.6418756596</v>
+        <v>707861.6418756595</v>
       </c>
     </row>
     <row r="4">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>668420.1233729242</v>
+        <v>668420.123372924</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>668420.1233729242</v>
+        <v>668420.123372924</v>
       </c>
     </row>
     <row r="7">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>668420.1233729242</v>
+        <v>668420.123372924</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>668420.1233729242</v>
+        <v>668420.123372924</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>668420.1233729242</v>
+        <v>668420.123372924</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>668420.1233729242</v>
+        <v>668420.123372924</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>668420.1233729242</v>
+        <v>668420.123372924</v>
       </c>
     </row>
     <row r="16">
@@ -26313,43 +26313,43 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>779989.681371069</v>
+      </c>
+      <c r="C2" t="n">
         <v>779989.6813710692</v>
-      </c>
-      <c r="C2" t="n">
-        <v>779989.6813710696</v>
       </c>
       <c r="D2" t="n">
         <v>779989.6813710689</v>
       </c>
       <c r="E2" t="n">
+        <v>742955.2135016475</v>
+      </c>
+      <c r="F2" t="n">
+        <v>742955.2135016471</v>
+      </c>
+      <c r="G2" t="n">
         <v>742955.2135016472</v>
       </c>
-      <c r="F2" t="n">
+      <c r="H2" t="n">
+        <v>742955.2135016469</v>
+      </c>
+      <c r="I2" t="n">
+        <v>742955.213501647</v>
+      </c>
+      <c r="J2" t="n">
+        <v>742955.2135016472</v>
+      </c>
+      <c r="K2" t="n">
+        <v>742955.2135016471</v>
+      </c>
+      <c r="L2" t="n">
+        <v>742955.2135016472</v>
+      </c>
+      <c r="M2" t="n">
+        <v>742955.213501647</v>
+      </c>
+      <c r="N2" t="n">
         <v>742955.2135016473</v>
-      </c>
-      <c r="G2" t="n">
-        <v>742955.213501647</v>
-      </c>
-      <c r="H2" t="n">
-        <v>742955.213501647</v>
-      </c>
-      <c r="I2" t="n">
-        <v>742955.2135016468</v>
-      </c>
-      <c r="J2" t="n">
-        <v>742955.2135016473</v>
-      </c>
-      <c r="K2" t="n">
-        <v>742955.2135016469</v>
-      </c>
-      <c r="L2" t="n">
-        <v>742955.2135016469</v>
-      </c>
-      <c r="M2" t="n">
-        <v>742955.2135016473</v>
-      </c>
-      <c r="N2" t="n">
-        <v>742955.2135016471</v>
       </c>
       <c r="O2" t="n">
         <v>742955.2135016472</v>
@@ -26368,10 +26368,10 @@
         <v>126293.341446813</v>
       </c>
       <c r="C3" t="n">
-        <v>106137.1517703835</v>
+        <v>106137.1517703817</v>
       </c>
       <c r="D3" t="n">
-        <v>316711.942425211</v>
+        <v>316711.9424252126</v>
       </c>
       <c r="E3" t="n">
         <v>525160.0364768964</v>
@@ -26389,19 +26389,19 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>72254.69487113818</v>
+        <v>72254.69487113913</v>
       </c>
       <c r="K3" t="n">
-        <v>24677.24609313402</v>
+        <v>24677.2460931337</v>
       </c>
       <c r="L3" t="n">
-        <v>76496.15793817154</v>
+        <v>76496.15793817188</v>
       </c>
       <c r="M3" t="n">
         <v>134801.0152338371</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>5.200846139448641e-11</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26417,28 +26417,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>316926.9684369123</v>
+        <v>316926.9684369122</v>
       </c>
       <c r="C4" t="n">
-        <v>286886.6599484432</v>
+        <v>286886.6599484438</v>
       </c>
       <c r="D4" t="n">
-        <v>192206.5963924297</v>
+        <v>192206.5963924298</v>
       </c>
       <c r="E4" t="n">
         <v>43561.42148316556</v>
       </c>
       <c r="F4" t="n">
+        <v>43561.42148316556</v>
+      </c>
+      <c r="G4" t="n">
         <v>43561.42148316555</v>
       </c>
-      <c r="G4" t="n">
+      <c r="H4" t="n">
+        <v>43561.42148316555</v>
+      </c>
+      <c r="I4" t="n">
         <v>43561.42148316556</v>
-      </c>
-      <c r="H4" t="n">
-        <v>43561.42148316543</v>
-      </c>
-      <c r="I4" t="n">
-        <v>43561.42148316544</v>
       </c>
       <c r="J4" t="n">
         <v>43561.42148316556</v>
@@ -26450,10 +26450,10 @@
         <v>43561.42148316556</v>
       </c>
       <c r="M4" t="n">
-        <v>43561.42148316555</v>
+        <v>43561.42148316556</v>
       </c>
       <c r="N4" t="n">
-        <v>43561.42148316556</v>
+        <v>43561.42148316564</v>
       </c>
       <c r="O4" t="n">
         <v>43561.42148316556</v>
@@ -26472,7 +26472,7 @@
         <v>51181.37951678014</v>
       </c>
       <c r="C5" t="n">
-        <v>58810.42201485713</v>
+        <v>58810.422014857</v>
       </c>
       <c r="D5" t="n">
         <v>82859.07806340946</v>
@@ -26487,10 +26487,10 @@
         <v>91987.32594871664</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
         <v>91987.32594871664</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>285587.9919705638</v>
+        <v>285587.9919705637</v>
       </c>
       <c r="C6" t="n">
-        <v>328155.4476373858</v>
+        <v>328155.4476373867</v>
       </c>
       <c r="D6" t="n">
-        <v>188212.0644900188</v>
+        <v>188212.0644900171</v>
       </c>
       <c r="E6" t="n">
-        <v>82246.42959286866</v>
+        <v>81271.83833314726</v>
       </c>
       <c r="F6" t="n">
-        <v>607406.4660697652</v>
+        <v>606431.8748100433</v>
       </c>
       <c r="G6" t="n">
-        <v>607406.4660697648</v>
+        <v>606431.8748100434</v>
       </c>
       <c r="H6" t="n">
-        <v>607406.4660697649</v>
+        <v>606431.874810043</v>
       </c>
       <c r="I6" t="n">
-        <v>607406.4660697647</v>
+        <v>606431.8748100431</v>
       </c>
       <c r="J6" t="n">
-        <v>535151.771198627</v>
+        <v>534177.1799389042</v>
       </c>
       <c r="K6" t="n">
-        <v>582729.2199766306</v>
+        <v>581754.6287169096</v>
       </c>
       <c r="L6" t="n">
-        <v>530910.3081315932</v>
+        <v>529935.7168718715</v>
       </c>
       <c r="M6" t="n">
-        <v>472605.4508359281</v>
+        <v>471630.8595762061</v>
       </c>
       <c r="N6" t="n">
-        <v>607406.4660697649</v>
+        <v>606431.8748100435</v>
       </c>
       <c r="O6" t="n">
-        <v>607406.466069765</v>
+        <v>606431.8748100434</v>
       </c>
       <c r="P6" t="n">
-        <v>607406.4660697649</v>
+        <v>606431.8748100433</v>
       </c>
     </row>
   </sheetData>
@@ -26721,13 +26721,13 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>6.501057674310801e-14</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>6.501057674310801e-14</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>6.501057674310801e-14</v>
       </c>
     </row>
     <row r="3">
@@ -26740,7 +26740,7 @@
         <v>35.02126071912533</v>
       </c>
       <c r="C3" t="n">
-        <v>117.5602045593888</v>
+        <v>117.5602045593874</v>
       </c>
       <c r="D3" t="n">
         <v>377.7436642170863</v>
@@ -26755,10 +26755,10 @@
         <v>830.3824054541003</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541017</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541017</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="J3" t="n">
         <v>830.3824054541003</v>
@@ -26792,7 +26792,7 @@
         <v>276.1565137023555</v>
       </c>
       <c r="C4" t="n">
-        <v>372.0396308464219</v>
+        <v>372.0396308464203</v>
       </c>
       <c r="D4" t="n">
         <v>674.2872727545556</v>
@@ -26943,7 +26943,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>6.501057674310801e-14</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26962,10 +26962,10 @@
         <v>35.02126071912533</v>
       </c>
       <c r="C3" t="n">
-        <v>82.53894384026347</v>
+        <v>82.53894384026205</v>
       </c>
       <c r="D3" t="n">
-        <v>260.1834596576975</v>
+        <v>260.1834596576989</v>
       </c>
       <c r="E3" t="n">
         <v>452.638741237014</v>
@@ -26983,7 +26983,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>-6.002502026105506e-14</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27014,10 +27014,10 @@
         <v>276.1565137023555</v>
       </c>
       <c r="C4" t="n">
-        <v>95.88311714406639</v>
+        <v>95.88311714406481</v>
       </c>
       <c r="D4" t="n">
-        <v>302.2476419081337</v>
+        <v>302.2476419081353</v>
       </c>
       <c r="E4" t="n">
         <v>540.9263704990175</v>
@@ -27035,13 +27035,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>276.1565137023558</v>
+        <v>276.1565137023556</v>
       </c>
       <c r="K4" t="n">
-        <v>95.88311714406616</v>
+        <v>95.88311714406493</v>
       </c>
       <c r="L4" t="n">
-        <v>302.247641908134</v>
+        <v>302.2476419081353</v>
       </c>
       <c r="M4" t="n">
         <v>540.9263704990173</v>
@@ -27260,10 +27260,10 @@
         <v>276.1565137023555</v>
       </c>
       <c r="K4" t="n">
-        <v>95.88311714406639</v>
+        <v>95.88311714406481</v>
       </c>
       <c r="L4" t="n">
-        <v>302.2476419081337</v>
+        <v>302.2476419081353</v>
       </c>
       <c r="M4" t="n">
         <v>540.9263704990175</v>
@@ -27378,16 +27378,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>106.5773279611251</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>213.9891188715735</v>
       </c>
       <c r="D2" t="n">
         <v>78.52652791832747</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>105.7738563699063</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
@@ -27399,7 +27399,7 @@
         <v>338.0329468943008</v>
       </c>
       <c r="I2" t="n">
-        <v>205.0481221176458</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27426,7 +27426,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>141.0252816852793</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>205.8118405263978</v>
@@ -27441,10 +27441,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>128.0403057174094</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>93.57458697611355</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27457,10 +27457,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
@@ -27472,13 +27472,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>137.2681884137393</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>86.80307722268739</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27508,25 +27508,25 @@
         <v>95.48084390037957</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>170.2839726213331</v>
       </c>
       <c r="T3" t="n">
-        <v>0.8814681199510233</v>
+        <v>199.8611009721718</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9364262421938</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>152.9580847476653</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27545,13 +27545,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>116.7238167216225</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>88.60271584629923</v>
+        <v>167.9278262653587</v>
       </c>
       <c r="H4" t="n">
         <v>161.6656840978772</v>
@@ -27563,7 +27563,7 @@
         <v>88.89425643449839</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>14.93225064571201</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27581,7 +27581,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="R4" t="n">
         <v>174.4537986637794</v>
@@ -27615,16 +27615,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>17.14563065356492</v>
+        <v>10.69421081706031</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>56.97803417295131</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>9.890739225839923</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
@@ -27633,10 +27633,10 @@
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>334.6347480657416</v>
+        <v>334.6347480657417</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>192.2558301280912</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27663,13 +27663,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>120.1819171385221</v>
       </c>
       <c r="S5" t="n">
-        <v>198.2506096409305</v>
+        <v>198.2506096409306</v>
       </c>
       <c r="T5" t="n">
-        <v>221.0270262658048</v>
+        <v>221.0270262658049</v>
       </c>
       <c r="U5" t="n">
         <v>251.3078446008425</v>
@@ -27681,10 +27681,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>14.19830780963173</v>
+        <v>14.19830780963332</v>
       </c>
     </row>
     <row r="6">
@@ -27694,10 +27694,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>106.1086438436456</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
@@ -27715,7 +27715,7 @@
         <v>109.7932973455552</v>
       </c>
       <c r="I6" t="n">
-        <v>80.69052336281882</v>
+        <v>80.69052336281894</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27742,13 +27742,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>84.45800155129702</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>133.1591572913807</v>
       </c>
       <c r="T6" t="n">
-        <v>199.1455039024624</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -27757,13 +27757,13 @@
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -27779,7 +27779,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>26.37179645285345</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27791,13 +27791,13 @@
         <v>167.7789855469582</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>160.342354801553</v>
       </c>
       <c r="I7" t="n">
         <v>149.0752428504967</v>
       </c>
       <c r="J7" t="n">
-        <v>78.3712176435848</v>
+        <v>78.37121764358498</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,16 +27818,16 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>68.41045236322668</v>
+        <v>68.4104523632269</v>
       </c>
       <c r="R7" t="n">
-        <v>167.7613787255181</v>
+        <v>167.7613787255182</v>
       </c>
       <c r="S7" t="n">
         <v>220.3221240674584</v>
       </c>
       <c r="T7" t="n">
-        <v>227.0397976882337</v>
+        <v>227.0397976882338</v>
       </c>
       <c r="U7" t="n">
         <v>286.3074660576818</v>
@@ -27836,13 +27836,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>222.5216203217761</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27858,13 +27858,13 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>230.3665371213813</v>
+        <v>159.7099893974883</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
@@ -27900,19 +27900,19 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748118</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -28010,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -28025,7 +28025,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
@@ -28034,7 +28034,7 @@
         <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853704</v>
+        <v>31.00485570431199</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28070,16 +28070,16 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>67.64905151217556</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -30237,10 +30237,10 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>6.501057674310801e-14</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>1.753978826802748e-12</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -30714,7 +30714,7 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>6.501057674310801e-14</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0.4726038374246783</v>
+        <v>0.4726038374246725</v>
       </c>
       <c r="H5" t="n">
-        <v>4.840054050025487</v>
+        <v>4.840054050025429</v>
       </c>
       <c r="I5" t="n">
-        <v>18.22005944231493</v>
+        <v>18.22005944231471</v>
       </c>
       <c r="J5" t="n">
-        <v>40.11165994662282</v>
+        <v>40.11165994662234</v>
       </c>
       <c r="K5" t="n">
-        <v>60.11698038480947</v>
+        <v>60.11698038480874</v>
       </c>
       <c r="L5" t="n">
-        <v>74.58043007439498</v>
+        <v>74.58043007439407</v>
       </c>
       <c r="M5" t="n">
-        <v>82.98509856819609</v>
+        <v>82.9850985681951</v>
       </c>
       <c r="N5" t="n">
-        <v>84.32788422127898</v>
+        <v>84.32788422127796</v>
       </c>
       <c r="O5" t="n">
-        <v>79.62842981288732</v>
+        <v>79.62842981288637</v>
       </c>
       <c r="P5" t="n">
-        <v>67.96102257646557</v>
+        <v>67.96102257646474</v>
       </c>
       <c r="Q5" t="n">
-        <v>51.03589764869426</v>
+        <v>51.03589764869364</v>
       </c>
       <c r="R5" t="n">
-        <v>29.68720080262797</v>
+        <v>29.68720080262761</v>
       </c>
       <c r="S5" t="n">
-        <v>10.76945994531487</v>
+        <v>10.76945994531474</v>
       </c>
       <c r="T5" t="n">
-        <v>2.06882329832653</v>
+        <v>2.068823298326505</v>
       </c>
       <c r="U5" t="n">
-        <v>0.03780830699397426</v>
+        <v>0.0378083069939738</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.2528653456560438</v>
+        <v>0.2528653456560408</v>
       </c>
       <c r="H6" t="n">
-        <v>2.442146890941266</v>
+        <v>2.442146890941236</v>
       </c>
       <c r="I6" t="n">
-        <v>8.706109488596248</v>
+        <v>8.706109488596143</v>
       </c>
       <c r="J6" t="n">
-        <v>23.89022987182825</v>
+        <v>23.89022987182796</v>
       </c>
       <c r="K6" t="n">
-        <v>40.83220803078319</v>
+        <v>40.8322080307827</v>
       </c>
       <c r="L6" t="n">
-        <v>54.90394270483532</v>
+        <v>54.90394270483466</v>
       </c>
       <c r="M6" t="n">
-        <v>64.07031148486689</v>
+        <v>64.07031148486612</v>
       </c>
       <c r="N6" t="n">
-        <v>65.7660619827094</v>
+        <v>65.76606198270862</v>
       </c>
       <c r="O6" t="n">
-        <v>60.16309827106759</v>
+        <v>60.16309827106686</v>
       </c>
       <c r="P6" t="n">
-        <v>48.28619043496859</v>
+        <v>48.28619043496801</v>
       </c>
       <c r="Q6" t="n">
-        <v>32.27803956128729</v>
+        <v>32.2780395612869</v>
       </c>
       <c r="R6" t="n">
-        <v>15.69983260134631</v>
+        <v>15.69983260134612</v>
       </c>
       <c r="S6" t="n">
-        <v>4.696862889707654</v>
+        <v>4.696862889707597</v>
       </c>
       <c r="T6" t="n">
-        <v>1.019224792359229</v>
+        <v>1.019224792359217</v>
       </c>
       <c r="U6" t="n">
-        <v>0.0166358780036871</v>
+        <v>0.0166358780036869</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.2119938115005372</v>
+        <v>0.2119938115005346</v>
       </c>
       <c r="H7" t="n">
-        <v>1.884817705886596</v>
+        <v>1.884817705886573</v>
       </c>
       <c r="I7" t="n">
-        <v>6.375232076761611</v>
+        <v>6.375232076761534</v>
       </c>
       <c r="J7" t="n">
-        <v>14.98796247308798</v>
+        <v>14.9879624730878</v>
       </c>
       <c r="K7" t="n">
-        <v>24.62982646342604</v>
+        <v>24.62982646342574</v>
       </c>
       <c r="L7" t="n">
-        <v>31.51769812072532</v>
+        <v>31.51769812072494</v>
       </c>
       <c r="M7" t="n">
-        <v>33.23099356094329</v>
+        <v>33.23099356094289</v>
       </c>
       <c r="N7" t="n">
-        <v>32.44083480898677</v>
+        <v>32.44083480898638</v>
       </c>
       <c r="O7" t="n">
-        <v>29.96436164736685</v>
+        <v>29.96436164736648</v>
       </c>
       <c r="P7" t="n">
-        <v>25.63968789275587</v>
+        <v>25.63968789275556</v>
       </c>
       <c r="Q7" t="n">
-        <v>17.75159088846771</v>
+        <v>17.75159088846749</v>
       </c>
       <c r="R7" t="n">
-        <v>9.532012651651424</v>
+        <v>9.532012651651309</v>
       </c>
       <c r="S7" t="n">
-        <v>3.694473969513905</v>
+        <v>3.694473969513861</v>
       </c>
       <c r="T7" t="n">
-        <v>0.9057917400477495</v>
+        <v>0.9057917400477385</v>
       </c>
       <c r="U7" t="n">
-        <v>0.01156329880912022</v>
+        <v>0.01156329880912008</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443622</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444951</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176654</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961209</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041495</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L20" t="n">
-        <v>526.7962671304449</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565528</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927196</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540896</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130947001</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647502</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R20" t="n">
-        <v>209.6945076446481</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104662</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T20" t="n">
-        <v>14.61306122562946</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U20" t="n">
-        <v>0.2670576580354898</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354106</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H21" t="n">
-        <v>17.25001940386728</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127075</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215737</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622987</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358991</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724854</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N21" t="n">
-        <v>464.536285481347</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855533</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P21" t="n">
-        <v>341.0678223458555</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.994806871096</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R21" t="n">
-        <v>110.895220109512</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.1761272367747</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361502</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1175069441680333</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.497410895081167</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H22" t="n">
-        <v>13.31334413990347</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.03122946298637</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J22" t="n">
-        <v>105.8669502822385</v>
+        <v>105.8669502822383</v>
       </c>
       <c r="K22" t="n">
-        <v>173.9719203557937</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L22" t="n">
-        <v>222.6241616196128</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M22" t="n">
-        <v>234.7259642171323</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.1447054263754</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O22" t="n">
-        <v>211.6522236065636</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P22" t="n">
-        <v>181.1050413469076</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235693</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337681</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S22" t="n">
-        <v>26.09578805336905</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892256</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351828</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443622</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444951</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176654</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961209</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041495</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L23" t="n">
-        <v>526.7962671304449</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565528</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927196</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540896</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130947001</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647502</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R23" t="n">
-        <v>209.6945076446481</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104662</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T23" t="n">
-        <v>14.61306122562946</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U23" t="n">
-        <v>0.2670576580354898</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32779,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354106</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H24" t="n">
-        <v>17.25001940386728</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127075</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215737</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622987</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358991</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724854</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N24" t="n">
-        <v>464.536285481347</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855533</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P24" t="n">
-        <v>341.0678223458555</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.994806871096</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R24" t="n">
-        <v>110.895220109512</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.1761272367747</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361502</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1175069441680333</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.497410895081167</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H25" t="n">
-        <v>13.31334413990347</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.03122946298637</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J25" t="n">
-        <v>105.8669502822385</v>
+        <v>105.8669502822383</v>
       </c>
       <c r="K25" t="n">
-        <v>173.9719203557937</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L25" t="n">
-        <v>222.6241616196128</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
-        <v>234.7259642171323</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.1447054263754</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O25" t="n">
-        <v>211.6522236065636</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P25" t="n">
-        <v>181.1050413469076</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235693</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337681</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S25" t="n">
-        <v>26.09578805336905</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892256</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351828</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -34777,22 +34777,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>6.370323552522133</v>
       </c>
       <c r="K3" t="n">
-        <v>138.7877391315785</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>248.6418854471727</v>
       </c>
       <c r="M3" t="n">
-        <v>158.2658797799248</v>
+        <v>276.1565137023555</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>276.1565137023555</v>
       </c>
       <c r="O3" t="n">
-        <v>269.1887005891756</v>
+        <v>7.558968543445864</v>
       </c>
       <c r="P3" t="n">
         <v>198.8728484821096</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>28.1623705920103</v>
+        <v>28.16237059200982</v>
       </c>
       <c r="K5" t="n">
-        <v>164.1725419109937</v>
+        <v>164.1725419109929</v>
       </c>
       <c r="L5" t="n">
-        <v>256.4752296548582</v>
+        <v>256.4752296548573</v>
       </c>
       <c r="M5" t="n">
-        <v>302.1523988337559</v>
+        <v>302.1523988337549</v>
       </c>
       <c r="N5" t="n">
-        <v>292.2617450366722</v>
+        <v>292.2617450366712</v>
       </c>
       <c r="O5" t="n">
-        <v>230.330399653946</v>
+        <v>230.330399653945</v>
       </c>
       <c r="P5" t="n">
-        <v>158.5267349926787</v>
+        <v>158.5267349926779</v>
       </c>
       <c r="Q5" t="n">
-        <v>41.04519843414946</v>
+        <v>41.04519843414884</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>23.1436385455704</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>167.4560060690023</v>
       </c>
       <c r="L6" t="n">
-        <v>59.32644089560709</v>
+        <v>287.1899082284197</v>
       </c>
       <c r="M6" t="n">
-        <v>372.0396308464219</v>
+        <v>335.0119008618639</v>
       </c>
       <c r="N6" t="n">
-        <v>372.0396308464219</v>
+        <v>372.0396308464203</v>
       </c>
       <c r="O6" t="n">
-        <v>311.4291731033527</v>
+        <v>311.429173103352</v>
       </c>
       <c r="P6" t="n">
-        <v>232.7745516605755</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>102.3735532111149</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35096,22 +35096,22 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>2.36033463754319</v>
+        <v>2.360334637542891</v>
       </c>
       <c r="L7" t="n">
-        <v>59.10772338104147</v>
+        <v>59.10772338104108</v>
       </c>
       <c r="M7" t="n">
-        <v>72.81487052278388</v>
+        <v>72.81487052278348</v>
       </c>
       <c r="N7" t="n">
-        <v>76.57300718821537</v>
+        <v>76.57300718821497</v>
       </c>
       <c r="O7" t="n">
-        <v>54.54948956140652</v>
+        <v>54.54948956140616</v>
       </c>
       <c r="P7" t="n">
-        <v>22.91824715764935</v>
+        <v>22.91824715764904</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35263,7 +35263,7 @@
         <v>529.4413268262936</v>
       </c>
       <c r="N9" t="n">
-        <v>439.8839133355135</v>
+        <v>559.3197334338901</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245896</v>
@@ -35272,7 +35272,7 @@
         <v>339.6412258735645</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.811094813734</v>
+        <v>54.37527471535759</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35430,7 +35430,7 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502051</v>
       </c>
       <c r="R11" t="n">
         <v>59.8253897034981</v>
@@ -35491,25 +35491,25 @@
         <v>41.91017895490668</v>
       </c>
       <c r="K12" t="n">
-        <v>150.5754385879392</v>
+        <v>189.435461607438</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M12" t="n">
         <v>310.4243770504663</v>
       </c>
       <c r="N12" t="n">
-        <v>693.6972596887384</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O12" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P12" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q12" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35652,10 +35652,10 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
-        <v>708.691066710907</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
         <v>803.5809304081118</v>
@@ -35725,19 +35725,19 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K15" t="n">
-        <v>332.6095128747336</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L15" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504663</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980129</v>
+        <v>756.5322523145245</v>
       </c>
       <c r="O15" t="n">
         <v>282.3637022411082</v>
@@ -35746,7 +35746,7 @@
         <v>207.0934149315247</v>
       </c>
       <c r="Q15" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35907,7 +35907,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>271.3780219415011</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303338</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109081</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221126</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N20" t="n">
-        <v>803.5809304081129</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951482</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109132</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502054</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349844</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>41.91017895490697</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005183</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
-        <v>249.257704956025</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>616.5391140644584</v>
+        <v>598.8335596281414</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980136</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411089</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>525.5561835714625</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q21" t="n">
-        <v>88.0130327850745</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556572</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299109</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799289</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M22" t="n">
-        <v>274.3098411789729</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N22" t="n">
-        <v>273.276877805604</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206032</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118011</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187496</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36357,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>271.3780219415084</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303338</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109081</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221126</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N23" t="n">
-        <v>803.5809304081129</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951482</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109132</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502054</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349123</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>41.91017895490697</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K24" t="n">
-        <v>150.5754385879397</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L24" t="n">
-        <v>609.7603912467457</v>
+        <v>278.7330645958064</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504671</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980136</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411089</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P24" t="n">
-        <v>525.5561835714625</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q24" t="n">
-        <v>298.0903205209236</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556572</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299109</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799289</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M25" t="n">
-        <v>274.3098411789729</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
-        <v>273.276877805604</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206032</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118011</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187496</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36673,13 +36673,13 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
         <v>310.4243770504663</v>
@@ -36691,7 +36691,7 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>250.7532875461493</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
@@ -36919,13 +36919,13 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>776.1294408004662</v>
+        <v>720.1247453734243</v>
       </c>
       <c r="N30" t="n">
-        <v>362.6699330377951</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O30" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
         <v>207.0934149315247</v>
@@ -37153,16 +37153,16 @@
         <v>150.5754385879392</v>
       </c>
       <c r="L33" t="n">
-        <v>278.7330645958064</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
         <v>776.1294408004662</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980129</v>
+        <v>756.5322523145245</v>
       </c>
       <c r="O33" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P33" t="n">
         <v>207.0934149315247</v>
@@ -37390,22 +37390,22 @@
         <v>150.5754385879392</v>
       </c>
       <c r="L36" t="n">
-        <v>620.0980502594834</v>
+        <v>278.7330645958064</v>
       </c>
       <c r="M36" t="n">
-        <v>618.5494866776696</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N36" t="n">
         <v>333.1945733980129</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P36" t="n">
         <v>207.0934149315247</v>
       </c>
       <c r="Q36" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37542,7 +37542,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K38" t="n">
         <v>528.6897561303331</v>
@@ -37563,7 +37563,7 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502051</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
         <v>59.8253897034981</v>
@@ -37630,16 +37630,16 @@
         <v>620.0980502594834</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504663</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980129</v>
+        <v>385.6919070110652</v>
       </c>
       <c r="O39" t="n">
-        <v>482.1033309642235</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q39" t="n">
         <v>88.01303278507413</v>
@@ -37785,7 +37785,7 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109072</v>
+        <v>708.691066710907</v>
       </c>
       <c r="M41" t="n">
         <v>805.3296502221117</v>
@@ -37800,7 +37800,7 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502051</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
         <v>59.8253897034981</v>
@@ -37858,31 +37858,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N42" t="n">
-        <v>438.0694836745878</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O42" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P42" t="n">
-        <v>525.5561835714618</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q42" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38028,7 +38028,7 @@
         <v>805.3296502221117</v>
       </c>
       <c r="N44" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O44" t="n">
         <v>713.1546070951472</v>
@@ -38040,7 +38040,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,31 +38095,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>510.0474576375751</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N45" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O45" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P45" t="n">
-        <v>207.0934149315247</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
